--- a/onlineTools/tools/Lottery/config.xlsx
+++ b/onlineTools/tools/Lottery/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SkyviewOffice 09\Desktop\NianHuiChouJiang-master\随机抽奖工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skyview\IdeaProjects\LinWenLi95.github.io\onlineTools\tools\Lottery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039E3A0-A6EA-4703-B1EE-2F9670A95F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ECFE9C-20AB-423B-B679-C84A7B813AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,33 +150,6 @@
     <t>039</t>
   </si>
   <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
     <t>050</t>
   </si>
   <si>
@@ -329,6 +294,165 @@
   </si>
   <si>
     <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>099</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,21 +475,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -375,36 +484,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -413,17 +496,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,524 +785,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FE0366-8887-461E-8FAA-2426D45480D9}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A135" sqref="A1:A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
+      <c r="A82" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
+      <c r="A83" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
+      <c r="A84" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
+      <c r="A85" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
+      <c r="A86" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
+      <c r="A87" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
+      <c r="A88" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
+      <c r="A89" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
+      <c r="A90" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
+      <c r="A102" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
+      <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
+      <c r="A104" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
+      <c r="A106" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1235,49 +1487,52 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>90</v>
+      <c r="A6" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>91</v>
+      <c r="A7" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>92</v>
+      <c r="A8" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1291,13 +1546,16 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1323,121 +1581,121 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
+      <c r="A9" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
+      <c r="A10" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+      <c r="A11" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+      <c r="A12" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+      <c r="A13" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+      <c r="A14" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
+      <c r="A15" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
+      <c r="A16" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
+      <c r="A17" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
+      <c r="A18" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
+      <c r="A19" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
+      <c r="A20" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
+      <c r="A21" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>84</v>
+      <c r="A22" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>85</v>
+      <c r="A23" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>87</v>
+      <c r="A24" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>89</v>
+      <c r="A25" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>106</v>
       </c>
     </row>
@@ -1449,492 +1707,690 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AAB54E-100B-4CA0-B588-265F3A85BF20}">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A135"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
+      <c r="A82" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
+      <c r="A83" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
+      <c r="A84" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
+      <c r="A85" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
+      <c r="A86" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
+      <c r="A87" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
+      <c r="A88" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
+      <c r="A89" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
+      <c r="A90" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
